--- a/game/mappings/T5Mappings.xlsx
+++ b/game/mappings/T5Mappings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\Sophont\game\improvedmappings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\Sophont\game\mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AEC0AE-9AB6-4848-B0C1-4E2497AC1216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2E75259-4EE9-4608-9A2C-29821538F068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38520" yWindow="10335" windowWidth="16020" windowHeight="18180" firstSheet="1" activeTab="2" xr2:uid="{922B48FF-0A11-4648-9808-3CC4D7F2A9F4}"/>
+    <workbookView xWindow="38520" yWindow="10335" windowWidth="16020" windowHeight="18180" firstSheet="4" activeTab="5" xr2:uid="{922B48FF-0A11-4648-9808-3CC4D7F2A9F4}"/>
   </bookViews>
   <sheets>
     <sheet name="characteristics.master.en" sheetId="9" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="234">
   <si>
     <t>Code</t>
   </si>
@@ -767,6 +767,9 @@
   </si>
   <si>
     <t>Skill Code1</t>
+  </si>
+  <si>
+    <t>engineering</t>
   </si>
 </sst>
 </file>
@@ -4079,8 +4082,8 @@
   </sheetPr>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6846,7 +6849,7 @@
   </sheetPr>
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -7862,8 +7865,8 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8166,7 +8169,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -8174,7 +8177,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -8182,7 +8185,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -8190,7 +8193,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -8198,7 +8201,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -8206,7 +8209,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -8214,7 +8217,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -8222,7 +8225,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -8230,15 +8233,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>37</v>
       </c>
       <c r="B41" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -8246,7 +8252,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -8254,7 +8260,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -8262,7 +8268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -8270,7 +8276,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -8278,7 +8284,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -8286,7 +8292,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44</v>
       </c>

--- a/game/mappings/T5Mappings.xlsx
+++ b/game/mappings/T5Mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\Sophont\game\mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2E75259-4EE9-4608-9A2C-29821538F068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B655BFD-50A7-4744-9B3D-CC77497C4089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38520" yWindow="10335" windowWidth="16020" windowHeight="18180" firstSheet="4" activeTab="5" xr2:uid="{922B48FF-0A11-4648-9808-3CC4D7F2A9F4}"/>
+    <workbookView xWindow="7500" yWindow="1380" windowWidth="16020" windowHeight="18180" firstSheet="1" activeTab="2" xr2:uid="{922B48FF-0A11-4648-9808-3CC4D7F2A9F4}"/>
   </bookViews>
   <sheets>
     <sheet name="characteristics.master.en" sheetId="9" r:id="rId1"/>
@@ -3289,7 +3289,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4082,8 +4082,8 @@
   </sheetPr>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7865,7 +7865,7 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
